--- a/Question6Data/Question6Data.xlsx
+++ b/Question6Data/Question6Data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AppDev\Github\Queue-Simulation\Question6Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alist\Desktop\Source\Queue-Simulation\Question6Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,6 +104,8563 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Queue</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> Utilization (0.4, 2] with Step Size of 0.1 vs. Average Packets in Buffer </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>K=10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.99192400000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.47373</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.09809</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9567999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9972699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9942500000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.9601699999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7157499999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3289200000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.7793299999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.1275700000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.4177400000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.6011600000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.77881</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.9138599999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.0229900000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DA0F-4D91-9710-2853FEDE2A81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>K=25</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.0064</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4840899999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3107799999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8355199999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3347199999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.4131</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.4178</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.227799999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.700099999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.514099999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.996400000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.359100000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23.588200000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23.761399999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.8977</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.0045</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DA0F-4D91-9710-2853FEDE2A81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>K=50</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$2:$U$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$2:$Y$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.00373</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.48855</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3279399999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.03538</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0661900000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.5654</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.109699999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.969499999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.6539</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47.460099999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.982300000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48.334800000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48.576900000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48.754600000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48.898600000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49.003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DA0F-4D91-9710-2853FEDE2A81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="843903199"/>
+        <c:axId val="843901951"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="843903199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Queue</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> Utilization</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="843901951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="843901951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> Packets in Buffer</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="843903199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Queue</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> Utilization (2, 5] with Step Size of 0.2 vs. Average Packets in Buffer </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>K=10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$18:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$18:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>9.1789100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2970699999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3837600000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4526299999999992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5124899999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5540199999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5912600000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.6243700000000008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6518499999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.6761199999999992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.6963699999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.7160600000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.7310099999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.7461099999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.7601300000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9CCD-44A4-B2BD-E7C50CE6464D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>K=25</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$18:$K$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$18:$O$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>24.171900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.2959</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.384799999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.454000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.5108</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.556000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.592300000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.623799999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.6526</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.676300000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.697600000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.7135</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.7316</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.746500000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.760300000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9CCD-44A4-B2BD-E7C50CE6464D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>K=50</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$18:$U$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$18:$Y$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>49.173099999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.296900000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.389899999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.453600000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.509300000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.553600000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49.594999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49.622100000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49.652500000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49.677</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49.697800000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49.714799999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49.732999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49.746099999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>49.759900000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9CCD-44A4-B2BD-E7C50CE6464D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="843903199"/>
+        <c:axId val="843901951"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="843903199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Queue</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> Utilization</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="843901951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="843901951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> Packets in Buffer</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="843903199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Queue</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> Utilization (5, 10) with Step Size of 0.4 vs. Average Packets in Buffer </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>K=10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$33:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$33:$E$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>9.7819299999999991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8010900000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8181700000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8319100000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8427900000000008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.8532799999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8628400000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.8707100000000008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.8782899999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.8848500000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.8910599999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.8962199999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4912-4A26-84D6-F067743DA1E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>K=25</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$33:$K$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$33:$O$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>24.782900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.8017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.8186</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.8309</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.8431</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.853400000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.863600000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.871099999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.8781</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.885100000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.8904</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.8962</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4912-4A26-84D6-F067743DA1E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>K=50</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$33:$U$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$33:$Y$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>49.782499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.801600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.817399999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.831000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.8414</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.853299999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49.862499999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49.870399999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49.878</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49.884300000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49.890300000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49.895600000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4912-4A26-84D6-F067743DA1E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="843903199"/>
+        <c:axId val="843901951"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="843903199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Queue</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> Utilization</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="843901951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="843901951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> Packets in Buffer</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="843903199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Queue</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> Utilization (0.4, 2] with Step Size of 0.1 vs. Packet Loss Probability </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>K=10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>4.2735700000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.56807E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1807800000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3024800000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0424900000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0275400000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14152000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.192828</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.245561</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.29206599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.33617599999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.37725500000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.41334599999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.44644</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.47536699999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.50168699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3522-4767-A710-0DE9B056571A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>K=25</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6599200000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6537599999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7575200000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.95278E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16683400000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22964799999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28650300000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.33300099999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.37346600000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.41205599999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.44424999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.47376699999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.499199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3522-4767-A710-0DE9B056571A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>K=50</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$2:$U$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$W$2:$W$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>2.7466100000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7475999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.89181E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.8152599999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16652700000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22827</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28329900000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.33124500000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.37462699999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.41172799999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.444942</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.47371600000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.49914599999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3522-4767-A710-0DE9B056571A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="843903199"/>
+        <c:axId val="843901951"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="843903199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Queue</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> Utilization</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="843901951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="843901951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Packet Loss Probability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="843903199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Queue</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> Utilization (2, 5] with Step Size of 0.2 vs. Packet Loss Probability</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>K=10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$18:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$18:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.54583499999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58379899999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61512699999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64287899999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66690300000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68756499999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70531299999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72232499999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.73691399999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.749892</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.76160600000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.77285599999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.78260799999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.79117000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.80025299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1C62-458E-AB92-C0EAA39A1348}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>K=25</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$18:$K$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$18:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.54517300000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58303099999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61591399999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64308200000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.666736</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68811800000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70561300000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72214800000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.73684499999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.749502</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.76198600000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.77253099999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.78267399999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.79164900000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.79985600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1C62-458E-AB92-C0EAA39A1348}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>K=50</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$18:$U$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$W$18:$W$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.54522800000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58341299999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61624500000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64244400000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66708699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68718100000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70665999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72167499999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.73706199999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.750749</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.76196399999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.77313500000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.78365899999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.79170399999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.80029899999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1C62-458E-AB92-C0EAA39A1348}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="843903199"/>
+        <c:axId val="843901951"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="843903199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Queue</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> Utilization</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="843901951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="843901951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Packet Loss Probability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="843903199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Queue</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> Utilization (5, 10) with Step Size of 0.4 vs. Packet Loss Probility </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>K=10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$33:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$33:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.81465100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82755500000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.839059</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84923700000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.857074</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86490599999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.87217800000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87820699999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88381399999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88919400000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89413900000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.89813699999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DE0A-4002-AF36-71B7E11615EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>K=25</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$33:$K$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$33:$M$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.81492100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82811599999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83968200000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84848900000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85724999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86489400000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.87223099999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87836899999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88389399999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88915900000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89371599999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.898393</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DE0A-4002-AF36-71B7E11615EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>K=50</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$33:$U$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$W$33:$W$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.81528199999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82786800000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83935099999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84865500000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85675699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86511300000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.87195</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.878135</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88409700000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88892300000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89370400000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.89807499999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DE0A-4002-AF36-71B7E11615EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="843903199"/>
+        <c:axId val="843901951"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="843903199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Queue</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> Utilization</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="843901951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="843901951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Packet Loss Probability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="843903199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>602456</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7937</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>350043</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>53974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>317501</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>127794</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619919</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342106</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>173037</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>246062</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>56355</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,42 +8928,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="X65" sqref="X65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.73046875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.59765625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.86328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.73046875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.59765625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.86328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +9046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0.5</v>
       </c>
@@ -572,7 +9129,7 @@
         <v>1000.01</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0.6</v>
       </c>
@@ -655,7 +9212,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0.7</v>
       </c>
@@ -738,7 +9295,7 @@
         <v>1000.01</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0.8</v>
       </c>
@@ -822,7 +9379,7 @@
         <v>1000.01</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0.9</v>
       </c>
@@ -905,7 +9462,7 @@
         <v>1000.01</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1</v>
       </c>
@@ -988,7 +9545,7 @@
         <v>1000.1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1.1000000000000001</v>
       </c>
@@ -1071,7 +9628,7 @@
         <v>1000.11</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1.2</v>
       </c>
@@ -1154,7 +9711,7 @@
         <v>1000.07</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1.3</v>
       </c>
@@ -1237,7 +9794,7 @@
         <v>1000.1</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1.4</v>
       </c>
@@ -1320,7 +9877,7 @@
         <v>1000.09</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1.5</v>
       </c>
@@ -1403,7 +9960,7 @@
         <v>1000.12</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1.6</v>
       </c>
@@ -1486,7 +10043,7 @@
         <v>1000.09</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1.7</v>
       </c>
@@ -1569,7 +10126,7 @@
         <v>1000.09</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1.8</v>
       </c>
@@ -1652,7 +10209,7 @@
         <v>1000.08</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1.9</v>
       </c>
@@ -1735,7 +10292,7 @@
         <v>1000.09</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1818,7 +10375,7 @@
         <v>1000.11</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2.2000000000000002</v>
       </c>
@@ -1901,7 +10458,7 @@
         <v>1000.11</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2.4</v>
       </c>
@@ -1984,7 +10541,7 @@
         <v>1000.1</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2.6</v>
       </c>
@@ -2067,7 +10624,7 @@
         <v>1000.1</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2.8</v>
       </c>
@@ -2150,7 +10707,7 @@
         <v>1000.1</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2233,7 +10790,7 @@
         <v>1000.08</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>3.2</v>
       </c>
@@ -2316,7 +10873,7 @@
         <v>1000.1</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>3.4</v>
       </c>
@@ -2399,7 +10956,7 @@
         <v>1000.09</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>3.6</v>
       </c>
@@ -2482,7 +11039,7 @@
         <v>1000.09</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>3.8</v>
       </c>
@@ -2565,7 +11122,7 @@
         <v>1000.11</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2648,7 +11205,7 @@
         <v>1000.1</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>4.2</v>
       </c>
@@ -2731,7 +11288,7 @@
         <v>1000.12</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>4.4000000000000004</v>
       </c>
@@ -2814,7 +11371,7 @@
         <v>1000.09</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>4.5999999999999996</v>
       </c>
@@ -2897,7 +11454,7 @@
         <v>1000.1</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>4.8</v>
       </c>
@@ -2980,7 +11537,7 @@
         <v>1000.1</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>5</v>
       </c>
@@ -3063,7 +11620,7 @@
         <v>1000.1</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>5.4</v>
       </c>
@@ -3146,7 +11703,7 @@
         <v>1000.09</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>5.8</v>
       </c>
@@ -3229,7 +11786,7 @@
         <v>1000.11</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>6.2</v>
       </c>
@@ -3312,7 +11869,7 @@
         <v>1000.09</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>6.6</v>
       </c>
@@ -3395,7 +11952,7 @@
         <v>1000.08</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>7</v>
       </c>
@@ -3478,7 +12035,7 @@
         <v>1000.12</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>7.4</v>
       </c>
@@ -3561,7 +12118,7 @@
         <v>1000.11</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>7.8</v>
       </c>
@@ -3644,7 +12201,7 @@
         <v>1000.1</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>8.1999999999999993</v>
       </c>
@@ -3727,7 +12284,7 @@
         <v>1000.1</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>8.6</v>
       </c>
@@ -3810,7 +12367,7 @@
         <v>1000.11</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>9</v>
       </c>
@@ -3893,7 +12450,7 @@
         <v>1000.1</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>9.4</v>
       </c>
@@ -3976,7 +12533,7 @@
         <v>1000.12</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>9.8000000000000007</v>
       </c>
@@ -4061,5 +12618,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Question6Data/Question6Data.xlsx
+++ b/Question6Data/Question6Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5132,6 +5132,2714 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Queue</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> Utilization (0.4, 10) vs. Average Packets in Buffer </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>K=10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0.99192400000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.47373</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.09809</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9567999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9972699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9942500000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.9601699999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7157499999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3289200000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.7793299999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.1275700000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.4177400000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.6011600000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.77881</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.9138599999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.0229900000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.1789100000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.2970699999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.3837600000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.4526299999999992</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.5124899999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.5540199999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.5912600000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.6243700000000008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.6518499999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.6761199999999992</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.6963699999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.7160600000000006</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.7310099999999995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.7461099999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.7601300000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.7819299999999991</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.8010900000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.8181700000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.8319100000000006</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.8427900000000008</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.8532799999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.8628400000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.8707100000000008</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.8782899999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.8848500000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.8910599999999995</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.8962199999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2420-47A8-930F-0E7A311A5935}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>K=25</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>1.0064</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4840899999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3107799999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8355199999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3347199999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.4131</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.4178</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.227799999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.700099999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.514099999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.996400000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.359100000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23.588200000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23.761399999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.8977</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.0045</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.171900000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24.2959</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24.384799999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.454000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24.5108</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24.556000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24.592300000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.623799999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.6526</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24.676300000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24.697600000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24.7135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>24.7316</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24.746500000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24.760300000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24.782900000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24.8017</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>24.8186</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24.8309</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>24.8431</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>24.853400000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>24.863600000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>24.871099999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>24.8781</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>24.885100000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>24.8904</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>24.8962</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2420-47A8-930F-0E7A311A5935}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>K=50</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$2:$U$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$2:$Y$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>1.00373</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.48855</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3279399999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.03538</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0661900000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.5654</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.109699999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.969499999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.6539</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47.460099999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.982300000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48.334800000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48.576900000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48.754600000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48.898600000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49.003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>49.173099999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49.296900000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>49.389899999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>49.453600000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>49.509300000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49.553600000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>49.594999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>49.622100000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>49.652500000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>49.677</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>49.697800000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>49.714799999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>49.732999999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>49.746099999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>49.759900000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>49.782499999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>49.801600000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>49.817399999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>49.831000000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>49.8414</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>49.853299999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>49.862499999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>49.870399999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>49.878</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>49.884300000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>49.890300000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49.895600000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2420-47A8-930F-0E7A311A5935}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="843903199"/>
+        <c:axId val="843901951"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="843903199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Queue</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> Utilization</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="843901951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="843901951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> Packets in Buffer</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="843903199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Queue</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> Utilization (0.4, 10) vs. Packet Loss Probability </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>K=10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>4.2735700000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.56807E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1807800000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3024800000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0424900000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0275400000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14152000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.192828</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.245561</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.29206599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.33617599999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.37725500000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.41334599999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.44644</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.47536699999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.50168699999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.54583499999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.58379899999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.61512699999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.64287899999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.66690300000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.68756499999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.70531299999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72232499999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.73691399999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.749892</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.76160600000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.77285599999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.78260799999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.79117000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.80025299999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.81465100000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.82755500000000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.839059</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.84923700000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.857074</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.86490599999999995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.87217800000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.87820699999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.88381399999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.88919400000000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.89413900000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.89813699999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5B0E-405C-94AA-EAD227A7203F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>K=25</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6599200000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6537599999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7575200000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.95278E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16683400000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22964799999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28650300000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.33300099999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.37346600000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.41205599999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.44424999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.47376699999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.499199</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.54517300000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.58303099999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.61591399999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.64308200000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.666736</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.68811800000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.70561300000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72214800000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.73684499999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.749502</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.76198600000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.77253099999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.78267399999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.79164900000000005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.79985600000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.81492100000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.82811599999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.83968200000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.84848900000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.85724999999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.86489400000000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.87223099999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.87836899999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.88389399999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.88915900000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.89371599999999995</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.898393</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5B0E-405C-94AA-EAD227A7203F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>K=50</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$2:$U$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$W$2:$W$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>2.7466100000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7475999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.89181E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.8152599999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16652700000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22827</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28329900000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.33124500000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.37462699999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.41172799999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.444942</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.47371600000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.49914599999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.54522800000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.58341299999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.61624500000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.64244400000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.66708699999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.68718100000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.70665999999999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72167499999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.73706199999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.750749</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.76196399999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.77313500000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.78365899999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.79170399999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.80029899999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.81528199999999995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.82786800000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.83935099999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.84865500000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.85675699999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.86511300000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.87195</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.878135</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.88409700000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.88892300000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.89370400000000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.89807499999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5B0E-405C-94AA-EAD227A7203F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="843903199"/>
+        <c:axId val="843901951"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="843903199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Queue</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> Utilization</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="843901951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="843901951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Packet Loss Probability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="843903199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5372,6 +8080,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7953,6 +10741,1038 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8655,6 +12475,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>111919</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>173037</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1262856</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>173037</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8928,8 +12812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="X65" sqref="X65"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="R101" sqref="R101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Question6Data/Question6Data.xlsx
+++ b/Question6Data/Question6Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alist\Desktop\Source\Queue-Simulation\Question6Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AppDev\Github\Queue-Simulation\Question6Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -145,9 +145,8 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> Utilization (0.4, 2] with Step Size of 0.1 vs. Average Packets in Buffer </a:t>
+              <a:t> Utilization (0.5, 1.5) with Step Size of 0.1 vs. Average Packets in Buffer</a:t>
             </a:r>
-            <a:endParaRPr lang="en-CA"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -219,10 +218,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
                 </c:pt>
@@ -255,31 +254,16 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$17</c:f>
+              <c:f>Sheet1!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.99192400000000003</c:v>
                 </c:pt>
@@ -312,21 +296,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>8.1275700000000004</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.4177400000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.6011600000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.77881</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.9138599999999997</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.0229900000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -370,10 +339,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$K$17</c:f>
+              <c:f>Sheet1!$K$2:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
                 </c:pt>
@@ -406,31 +375,16 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$17</c:f>
+              <c:f>Sheet1!$O$2:$O$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1.0064</c:v>
                 </c:pt>
@@ -463,21 +417,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>22.996400000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>23.359100000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>23.588200000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23.761399999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>23.8977</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>24.0045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -521,10 +460,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$U$2:$U$17</c:f>
+              <c:f>Sheet1!$U$2:$U$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
                 </c:pt>
@@ -557,31 +496,16 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$2:$Y$17</c:f>
+              <c:f>Sheet1!$Y$2:$Y$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1.00373</c:v>
                 </c:pt>
@@ -614,21 +538,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>47.982300000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>48.334800000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>48.576900000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>48.754600000000003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>48.898600000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>49.003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -636,7 +545,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DA0F-4D91-9710-2853FEDE2A81}"/>
+              <c16:uniqueId val="{00000000-7035-45C7-B1D7-4726B648E475}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -655,8 +564,8 @@
         <c:axId val="843903199"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2"/>
-          <c:min val="0.4"/>
+          <c:max val="1.5"/>
+          <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1015,1656 +924,6 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> Utilization (2, 5] with Step Size of 0.2 vs. Average Packets in Buffer </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-CA"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>K=10</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$18:$A$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$18:$E$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>9.1789100000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.2970699999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.3837600000000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.4526299999999992</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.5124899999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.5540199999999995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.5912600000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.6243700000000008</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.6518499999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.6761199999999992</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.6963699999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.7160600000000006</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.7310099999999995</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.7461099999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.7601300000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9CCD-44A4-B2BD-E7C50CE6464D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>K=25</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$K$18:$K$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$O$18:$O$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>24.171900000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24.2959</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.384799999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.454000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24.5108</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24.556000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24.592300000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.623799999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24.6526</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>24.676300000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>24.697600000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24.7135</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24.7316</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24.746500000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24.760300000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9CCD-44A4-B2BD-E7C50CE6464D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>K=50</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$U$18:$U$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$Y$18:$Y$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>49.173099999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>49.296900000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>49.389899999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>49.453600000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>49.509300000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>49.553600000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>49.594999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>49.622100000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>49.652500000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>49.677</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>49.697800000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>49.714799999999997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>49.732999999999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>49.746099999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>49.759900000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9CCD-44A4-B2BD-E7C50CE6464D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="843903199"/>
-        <c:axId val="843901951"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="843903199"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="5"/>
-          <c:min val="2"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-CA"/>
-                  <a:t>Queue</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-CA" baseline="0"/>
-                  <a:t> Utilization</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-CA"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="843901951"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="843901951"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-CA"/>
-                  <a:t>Average</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-CA" baseline="0"/>
-                  <a:t> Packets in Buffer</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-CA"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="843903199"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-CA"/>
-              <a:t>Queue</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> Utilization (5, 10) with Step Size of 0.4 vs. Average Packets in Buffer </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-CA"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>K=10</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$33:$A$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.8000000000000007</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$33:$E$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>9.7819299999999991</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.8010900000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.8181700000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.8319100000000006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.8427900000000008</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.8532799999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.8628400000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.8707100000000008</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.8782899999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.8848500000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.8910599999999995</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.8962199999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4912-4A26-84D6-F067743DA1E7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>K=25</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$K$33:$K$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.8000000000000007</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$O$33:$O$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>24.782900000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24.8017</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.8186</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.8309</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24.8431</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24.853400000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24.863600000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.871099999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24.8781</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>24.885100000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>24.8904</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24.8962</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4912-4A26-84D6-F067743DA1E7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>K=50</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$U$33:$U$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.8000000000000007</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$Y$33:$Y$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>49.782499999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>49.801600000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>49.817399999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>49.831000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>49.8414</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>49.853299999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>49.862499999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>49.870399999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>49.878</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>49.884300000000003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>49.890300000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>49.895600000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4912-4A26-84D6-F067743DA1E7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="843903199"/>
-        <c:axId val="843901951"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="843903199"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10"/>
-          <c:min val="5"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-CA"/>
-                  <a:t>Queue</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-CA" baseline="0"/>
-                  <a:t> Utilization</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-CA"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="843901951"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="843901951"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-CA"/>
-                  <a:t>Average</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-CA" baseline="0"/>
-                  <a:t> Packets in Buffer</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-CA"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="843903199"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-CA"/>
-              <a:t>Queue</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-CA" baseline="0"/>
               <a:t> Utilization (0.4, 2] with Step Size of 0.1 vs. Packet Loss Probability </a:t>
             </a:r>
             <a:endParaRPr lang="en-CA"/>
@@ -3492,7 +1751,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4339,7 +2598,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5132,1363 +3391,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-CA"/>
-              <a:t>Queue</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> Utilization (0.4, 10) vs. Average Packets in Buffer </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-CA"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>K=10</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6.6</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7.8</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>8.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8.6</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>9.4</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>9.8000000000000007</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
-                <c:pt idx="0">
-                  <c:v>0.99192400000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.47373</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.09809</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.9567999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.9972699999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.9942500000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.9601699999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.7157499999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.3289200000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.7793299999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.1275700000000004</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.4177400000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.6011600000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.77881</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.9138599999999997</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.0229900000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9.1789100000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9.2970699999999997</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9.3837600000000005</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.4526299999999992</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9.5124899999999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9.5540199999999995</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9.5912600000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9.6243700000000008</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9.6518499999999996</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9.6761199999999992</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9.6963699999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9.7160600000000006</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>9.7310099999999995</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>9.7461099999999998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>9.7601300000000002</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>9.7819299999999991</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>9.8010900000000003</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>9.8181700000000003</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9.8319100000000006</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>9.8427900000000008</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9.8532799999999998</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9.8628400000000003</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9.8707100000000008</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>9.8782899999999998</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>9.8848500000000001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>9.8910599999999995</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>9.8962199999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2420-47A8-930F-0E7A311A5935}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>K=25</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$K$2:$K$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6.6</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7.8</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>8.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8.6</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>9.4</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>9.8000000000000007</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$O$2:$O$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
-                <c:pt idx="0">
-                  <c:v>1.0064</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.4840899999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.3107799999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.8355199999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.3347199999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.4131</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17.4178</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20.227799999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21.700099999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22.514099999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22.996400000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>23.359100000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>23.588200000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23.761399999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>23.8977</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>24.0045</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>24.171900000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>24.2959</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>24.384799999999998</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>24.454000000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>24.5108</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>24.556000000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>24.592300000000002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24.623799999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24.6526</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>24.676300000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>24.697600000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>24.7135</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>24.7316</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>24.746500000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>24.760300000000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>24.782900000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>24.8017</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>24.8186</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>24.8309</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>24.8431</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>24.853400000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>24.863600000000002</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>24.871099999999998</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>24.8781</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>24.885100000000001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>24.8904</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>24.8962</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2420-47A8-930F-0E7A311A5935}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>K=50</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$U$2:$U$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6.6</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7.8</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>8.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8.6</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>9.4</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>9.8000000000000007</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$Y$2:$Y$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
-                <c:pt idx="0">
-                  <c:v>1.00373</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.48855</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.3279399999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.03538</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.0661900000000006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25.5654</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40.109699999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44.969499999999996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>46.6539</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>47.460099999999997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>47.982300000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>48.334800000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>48.576900000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>48.754600000000003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>48.898600000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>49.003</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>49.173099999999998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>49.296900000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>49.389899999999997</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>49.453600000000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>49.509300000000003</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>49.553600000000003</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>49.594999999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>49.622100000000003</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>49.652500000000003</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>49.677</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>49.697800000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>49.714799999999997</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>49.732999999999997</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>49.746099999999998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>49.759900000000002</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>49.782499999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>49.801600000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>49.817399999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>49.831000000000003</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>49.8414</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>49.853299999999997</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>49.862499999999997</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>49.870399999999997</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>49.878</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>49.884300000000003</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>49.890300000000003</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>49.895600000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2420-47A8-930F-0E7A311A5935}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="843903199"/>
-        <c:axId val="843901951"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="843903199"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10"/>
-          <c:min val="0.4"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-CA"/>
-                  <a:t>Queue</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-CA" baseline="0"/>
-                  <a:t> Utilization</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-CA"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="843901951"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="843901951"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-CA"/>
-                  <a:t>Average</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-CA" baseline="0"/>
-                  <a:t> Packets in Buffer</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-CA"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="843903199"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8040,126 +4943,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -10225,1554 +7008,6 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12322,70 +7557,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>7937</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>63499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>350043</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>53974</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>317501</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>127794</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
       <xdr:row>68</xdr:row>
@@ -12410,7 +7581,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12442,7 +7613,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12474,7 +7645,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12483,46 +7654,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>111919</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>173037</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1262856</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:colOff>627856</xdr:colOff>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>173037</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12538,7 +7677,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12812,42 +7951,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="R101" sqref="R101"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Y65" sqref="Y65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.86328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.86328125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12930,7 +8069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.5</v>
       </c>
@@ -13013,7 +8152,7 @@
         <v>1000.01</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.6</v>
       </c>
@@ -13096,7 +8235,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.7</v>
       </c>
@@ -13179,7 +8318,7 @@
         <v>1000.01</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.8</v>
       </c>
@@ -13263,7 +8402,7 @@
         <v>1000.01</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.9</v>
       </c>
@@ -13346,7 +8485,7 @@
         <v>1000.01</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -13429,7 +8568,7 @@
         <v>1000.1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.1000000000000001</v>
       </c>
@@ -13512,7 +8651,7 @@
         <v>1000.11</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.2</v>
       </c>
@@ -13595,7 +8734,7 @@
         <v>1000.07</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.3</v>
       </c>
@@ -13678,7 +8817,7 @@
         <v>1000.1</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1.4</v>
       </c>
@@ -13761,7 +8900,7 @@
         <v>1000.09</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.5</v>
       </c>
@@ -13844,7 +8983,7 @@
         <v>1000.12</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.6</v>
       </c>
@@ -13927,7 +9066,7 @@
         <v>1000.09</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.7</v>
       </c>
@@ -14010,7 +9149,7 @@
         <v>1000.09</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.8</v>
       </c>
@@ -14093,7 +9232,7 @@
         <v>1000.08</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1.9</v>
       </c>
@@ -14176,7 +9315,7 @@
         <v>1000.09</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -14259,7 +9398,7 @@
         <v>1000.11</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2.2000000000000002</v>
       </c>
@@ -14342,7 +9481,7 @@
         <v>1000.11</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2.4</v>
       </c>
@@ -14425,7 +9564,7 @@
         <v>1000.1</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2.6</v>
       </c>
@@ -14508,7 +9647,7 @@
         <v>1000.1</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2.8</v>
       </c>
@@ -14591,7 +9730,7 @@
         <v>1000.1</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -14674,7 +9813,7 @@
         <v>1000.08</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3.2</v>
       </c>
@@ -14757,7 +9896,7 @@
         <v>1000.1</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3.4</v>
       </c>
@@ -14840,7 +9979,7 @@
         <v>1000.09</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3.6</v>
       </c>
@@ -14923,7 +10062,7 @@
         <v>1000.09</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3.8</v>
       </c>
@@ -15006,7 +10145,7 @@
         <v>1000.11</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
@@ -15089,7 +10228,7 @@
         <v>1000.1</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4.2</v>
       </c>
@@ -15172,7 +10311,7 @@
         <v>1000.12</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4.4000000000000004</v>
       </c>
@@ -15255,7 +10394,7 @@
         <v>1000.09</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4.5999999999999996</v>
       </c>
@@ -15338,7 +10477,7 @@
         <v>1000.1</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4.8</v>
       </c>
@@ -15421,7 +10560,7 @@
         <v>1000.1</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5</v>
       </c>
@@ -15504,7 +10643,7 @@
         <v>1000.1</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5.4</v>
       </c>
@@ -15587,7 +10726,7 @@
         <v>1000.09</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5.8</v>
       </c>
@@ -15670,7 +10809,7 @@
         <v>1000.11</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>6.2</v>
       </c>
@@ -15753,7 +10892,7 @@
         <v>1000.09</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>6.6</v>
       </c>
@@ -15836,7 +10975,7 @@
         <v>1000.08</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>7</v>
       </c>
@@ -15919,7 +11058,7 @@
         <v>1000.12</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7.4</v>
       </c>
@@ -16002,7 +11141,7 @@
         <v>1000.11</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>7.8</v>
       </c>
@@ -16085,7 +11224,7 @@
         <v>1000.1</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>8.1999999999999993</v>
       </c>
@@ -16168,7 +11307,7 @@
         <v>1000.1</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>8.6</v>
       </c>
@@ -16251,7 +11390,7 @@
         <v>1000.11</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>9</v>
       </c>
@@ -16334,7 +11473,7 @@
         <v>1000.1</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>9.4</v>
       </c>
@@ -16417,7 +11556,7 @@
         <v>1000.12</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>9.8000000000000007</v>
       </c>
